--- a/Team-Data/2007-08/2-24-2007-08.xlsx
+++ b/Team-Data/2007-08/2-24-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -777,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>8</v>
@@ -789,10 +856,10 @@
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
         <v>20</v>
@@ -810,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -848,55 +915,55 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.778</v>
+        <v>0.774</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J3" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
         <v>19.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.385</v>
+        <v>0.379</v>
       </c>
       <c r="O3" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="P3" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U3" t="n">
         <v>21.7</v>
@@ -905,7 +972,7 @@
         <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
@@ -917,16 +984,16 @@
         <v>22.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
         <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,10 +1023,10 @@
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
@@ -971,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>22</v>
@@ -980,16 +1047,16 @@
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
@@ -1141,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1156,7 +1223,7 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
         <v>17</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.407</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.427</v>
@@ -1245,25 +1312,25 @@
         <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R5" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V5" t="n">
         <v>14.6</v>
@@ -1278,31 +1345,31 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1323,13 +1390,13 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>20</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1356,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1365,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
         <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>0.571</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J6" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
@@ -1436,22 +1503,22 @@
         <v>0.72</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U6" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V6" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>4.9</v>
@@ -1460,19 +1527,19 @@
         <v>4.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1505,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>4</v>
@@ -1535,10 +1602,10 @@
         <v>14</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
         <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.661</v>
+        <v>0.655</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1606,13 +1673,13 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O7" t="n">
         <v>20.9</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8179999999999999</v>
@@ -1627,7 +1694,7 @@
         <v>42.6</v>
       </c>
       <c r="U7" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V7" t="n">
         <v>12.8</v>
@@ -1636,13 +1703,13 @@
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y7" t="n">
         <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA7" t="n">
         <v>21.6</v>
@@ -1651,13 +1718,13 @@
         <v>99.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1681,10 +1748,10 @@
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
@@ -1705,22 +1772,22 @@
         <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1860,13 +1927,13 @@
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.732</v>
+        <v>0.727</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
         <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R9" t="n">
         <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
         <v>22.8</v>
       </c>
       <c r="V9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
         <v>5.3</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2057,7 +2124,7 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
@@ -2066,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2075,19 +2142,19 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ9" t="n">
         <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2242,13 +2309,13 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,10 +2327,10 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.643</v>
+        <v>0.636</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J11" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O11" t="n">
         <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.725</v>
+        <v>0.729</v>
       </c>
       <c r="R11" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S11" t="n">
         <v>32.2</v>
       </c>
       <c r="T11" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V11" t="n">
         <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
         <v>5.3</v>
@@ -2370,28 +2437,28 @@
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
@@ -2400,10 +2467,10 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,10 +2488,10 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
@@ -2439,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>5</v>
@@ -2454,7 +2521,7 @@
         <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>8</v>
@@ -2609,7 +2676,7 @@
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>7</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
@@ -2773,13 +2840,13 @@
         <v>28</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN13" t="n">
         <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2794,16 +2861,16 @@
         <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.696</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.48</v>
@@ -2880,16 +2947,16 @@
         <v>19.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
         <v>10.7</v>
@@ -2901,7 +2968,7 @@
         <v>43.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.8</v>
@@ -2913,22 +2980,22 @@
         <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2961,13 +3028,13 @@
         <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>20</v>
@@ -2982,13 +3049,13 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>15</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L15" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M15" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O15" t="n">
         <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R15" t="n">
         <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U15" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V15" t="n">
         <v>16</v>
       </c>
       <c r="W15" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
         <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3128,25 +3195,25 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3167,13 +3234,13 @@
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3182,7 +3249,7 @@
         <v>8</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3349,7 +3416,7 @@
         <v>18</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3513,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>10</v>
@@ -3543,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="n">
-        <v>0.204</v>
+        <v>0.208</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,37 +3663,37 @@
         <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="N18" t="n">
         <v>0.333</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R18" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S18" t="n">
         <v>29.9</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
         <v>19.3</v>
@@ -3638,7 +3705,7 @@
         <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y18" t="n">
         <v>5.9</v>
@@ -3647,16 +3714,16 @@
         <v>23.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.4</v>
+        <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,13 +3738,13 @@
         <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,10 +3768,10 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>27</v>
@@ -3713,7 +3780,7 @@
         <v>22</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,10 +3932,10 @@
         <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,13 +3944,13 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4029,7 +4096,7 @@
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
@@ -4044,7 +4111,7 @@
         <v>8</v>
       </c>
       <c r="AL20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM20" t="n">
         <v>7</v>
@@ -4071,7 +4138,7 @@
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4083,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4095,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.304</v>
+        <v>0.309</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
       </c>
       <c r="M21" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="O21" t="n">
         <v>19.2</v>
       </c>
       <c r="P21" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.729</v>
+        <v>0.727</v>
       </c>
       <c r="R21" t="n">
         <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
         <v>18.5</v>
       </c>
       <c r="V21" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W21" t="n">
         <v>6.3</v>
@@ -4190,19 +4257,19 @@
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.3</v>
+        <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>19</v>
@@ -4232,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4241,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR21" t="n">
         <v>7</v>
@@ -4268,13 +4335,13 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
         <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.47</v>
@@ -4333,10 +4400,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O22" t="n">
         <v>21.1</v>
@@ -4351,16 +4418,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T22" t="n">
         <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W22" t="n">
         <v>6.2</v>
@@ -4369,25 +4436,25 @@
         <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA22" t="n">
         <v>23.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
@@ -4417,7 +4484,7 @@
         <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4426,13 +4493,13 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4444,10 +4511,10 @@
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>18</v>
@@ -4581,7 +4648,7 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
         <v>12</v>
@@ -4614,13 +4681,13 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
@@ -4638,7 +4705,7 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -4670,97 +4737,97 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="n">
         <v>38</v>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.679</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.491</v>
+        <v>0.493</v>
       </c>
       <c r="L24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="N24" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O24" t="n">
         <v>18</v>
       </c>
       <c r="P24" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.788</v>
+        <v>0.792</v>
       </c>
       <c r="R24" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="V24" t="n">
         <v>13.9</v>
       </c>
       <c r="W24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X24" t="n">
         <v>7.1</v>
-      </c>
-      <c r="X24" t="n">
-        <v>7</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.2</v>
+        <v>109.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AD24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE24" t="n">
         <v>3</v>
       </c>
-      <c r="AE24" t="n">
-        <v>4</v>
-      </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>4</v>
@@ -4778,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
         <v>21</v>
@@ -4787,16 +4854,16 @@
         <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4817,13 +4884,13 @@
         <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.518</v>
+        <v>0.527</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
@@ -4870,37 +4937,37 @@
         <v>35.5</v>
       </c>
       <c r="J25" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.451</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.379</v>
+        <v>0.375</v>
       </c>
       <c r="O25" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P25" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
         <v>21.3</v>
@@ -4909,10 +4976,10 @@
         <v>13.2</v>
       </c>
       <c r="W25" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
         <v>3.8</v>
@@ -4921,19 +4988,19 @@
         <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4954,13 +5021,13 @@
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4969,16 +5036,16 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
         <v>18</v>
@@ -4993,7 +5060,7 @@
         <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5002,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
         <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.473</v>
+        <v>0.481</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5055,7 +5122,7 @@
         <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
         <v>6.5</v>
@@ -5067,16 +5134,16 @@
         <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="P26" t="n">
         <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.791</v>
       </c>
       <c r="R26" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S26" t="n">
         <v>29.9</v>
@@ -5091,10 +5158,10 @@
         <v>16.3</v>
       </c>
       <c r="W26" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
         <v>5.5</v>
@@ -5106,13 +5173,13 @@
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.8</v>
+        <v>-1.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5133,7 +5200,7 @@
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>14</v>
@@ -5142,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5151,16 +5218,16 @@
         <v>6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR26" t="n">
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
@@ -5303,19 +5370,19 @@
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5324,19 +5391,19 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5366,10 +5433,10 @@
         <v>26</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="n">
-        <v>0.273</v>
+        <v>0.278</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,37 +5483,37 @@
         <v>37.5</v>
       </c>
       <c r="J28" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L28" t="n">
         <v>4.3</v>
       </c>
       <c r="M28" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
         <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U28" t="n">
         <v>21.4</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-6.8</v>
+        <v>-6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5497,16 +5564,16 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
       </c>
       <c r="AM28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>28</v>
@@ -5539,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -5580,34 +5647,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.556</v>
+        <v>0.547</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J29" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K29" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L29" t="n">
         <v>7.8</v>
       </c>
       <c r="M29" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N29" t="n">
         <v>0.423</v>
@@ -5622,22 +5689,22 @@
         <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V29" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>3.9</v>
@@ -5652,13 +5719,13 @@
         <v>18</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5676,13 +5743,13 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
         <v>28</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5852,16 +5919,16 @@
         <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,13 +5937,13 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>5</v>
@@ -6052,13 +6119,13 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6067,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
         <v>11</v>
@@ -6082,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-24-2007-08</t>
+          <t>2008-02-24</t>
         </is>
       </c>
     </row>
